--- a/data/policy.xlsx
+++ b/data/policy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-dml/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57310577-14AA-6E47-946D-C815354D14ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B48D8E9-EFE5-7144-8851-27FED3AB5363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27600" windowHeight="17040" xr2:uid="{7277640E-EAF5-164F-924E-2848378214AD}"/>
+    <workbookView xWindow="6420" yWindow="460" windowWidth="27600" windowHeight="17040" xr2:uid="{7277640E-EAF5-164F-924E-2848378214AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0405EB4C-0368-8245-8EC7-65A3B152F93C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:J13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,31 +466,51 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
